--- a/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\elec\SoTCCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\elec\SoTCCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E93A35-BCBB-4D00-A560-125BCD095527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1770" windowWidth="20490" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="150" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Cost Breakdowns" sheetId="1" r:id="rId3"/>
     <sheet name="SoTCCbIC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -765,7 +764,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,6 +854,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,23 +872,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_DefaultData" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_DefaultData" xfId="5"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1158,25 +1156,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="57">
-        <v>44336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>125</v>
       </c>
@@ -1184,22 +1179,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -1210,26 +1205,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1253,7 +1248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1261,7 +1256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1357,7 +1352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1365,7 +1360,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1373,7 +1368,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1389,7 +1384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -1445,7 +1440,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -1453,7 +1448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1485,7 +1480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1501,7 +1496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1509,7 +1504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1541,7 +1536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1557,7 +1552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1565,7 +1560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1579,38 +1574,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.1328125" customWidth="1"/>
+    <col min="11" max="11" width="74.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>79</v>
       </c>
@@ -1640,7 +1635,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>80</v>
       </c>
@@ -1663,7 +1658,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>81</v>
       </c>
@@ -1686,7 +1681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>82</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>84</v>
       </c>
@@ -1746,7 +1741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>85</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>86</v>
       </c>
@@ -1770,7 +1765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
         <v>87</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>88</v>
       </c>
@@ -1816,7 +1811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="21" t="s">
         <v>89</v>
       </c>
@@ -1839,7 +1834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>90</v>
       </c>
@@ -1847,25 +1842,25 @@
         <v>8850000</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>92</v>
       </c>
@@ -1876,11 +1871,11 @@
         <f t="shared" si="0"/>
         <v>6.1188273348476478E-2</v>
       </c>
-      <c r="D16" s="51" t="str">
+      <c r="D16" s="54" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="54" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="21" t="s">
         <v>93</v>
       </c>
@@ -1899,11 +1894,11 @@
         <f t="shared" si="0"/>
         <v>0.11354523794483037</v>
       </c>
-      <c r="D17" s="51" t="str">
+      <c r="D17" s="54" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E17" s="51" t="str">
+      <c r="E17" s="54" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -1911,7 +1906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>94</v>
       </c>
@@ -1919,13 +1914,13 @@
         <v>5041400.179856115</v>
       </c>
       <c r="C18" s="45"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="9"/>
       <c r="F18" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="24" t="s">
         <v>95</v>
       </c>
@@ -1933,25 +1928,25 @@
         <v>16205036.543492477</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="8"/>
       <c r="F19" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="45"/>
-      <c r="D20" s="51"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="8"/>
       <c r="F20" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="25" t="s">
         <v>86</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>97</v>
       </c>
@@ -1986,7 +1981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="26" t="s">
         <v>98</v>
       </c>
@@ -2009,7 +2004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
@@ -2032,7 +2027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>100</v>
       </c>
@@ -2055,7 +2050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
@@ -2078,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>90</v>
       </c>
@@ -2092,7 +2087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="23" t="s">
         <v>72</v>
       </c>
@@ -2107,7 +2102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>97</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="26" t="s">
         <v>102</v>
       </c>
@@ -2153,7 +2148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="26" t="s">
         <v>99</v>
       </c>
@@ -2176,7 +2171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="21" t="s">
         <v>100</v>
       </c>
@@ -2199,7 +2194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="21" t="s">
         <v>103</v>
       </c>
@@ -2222,7 +2217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>104</v>
       </c>
@@ -2236,7 +2231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="23" t="s">
         <v>106</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="23" t="s">
         <v>107</v>
       </c>
@@ -2276,7 +2271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>108</v>
       </c>
@@ -2299,7 +2294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>109</v>
       </c>
@@ -2322,7 +2317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="25" t="s">
         <v>110</v>
       </c>
@@ -2348,7 +2343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>111</v>
       </c>
@@ -2371,7 +2366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>112</v>
       </c>
@@ -2394,7 +2389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="25" t="s">
         <v>113</v>
       </c>
@@ -2420,7 +2415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="21" t="s">
         <v>114</v>
       </c>
@@ -2443,7 +2438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="21" t="s">
         <v>115</v>
       </c>
@@ -2466,7 +2461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="21" t="s">
         <v>116</v>
       </c>
@@ -2489,7 +2484,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="27" t="s">
         <v>117</v>
       </c>
@@ -2512,7 +2507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="21" t="s">
         <v>118</v>
       </c>
@@ -2526,7 +2521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="28" t="s">
         <v>119</v>
       </c>
@@ -2540,7 +2535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="29" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="30" t="s">
         <v>3</v>
       </c>
@@ -2568,7 +2563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="31" t="s">
         <v>120</v>
       </c>
@@ -2576,10 +2571,10 @@
         <v>29859436.543492477</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C55" s="46"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C56" s="46"/>
     </row>
   </sheetData>
@@ -2592,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -2600,16 +2595,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" customWidth="1"/>
-    <col min="29" max="43" width="10.42578125" customWidth="1"/>
+    <col min="2" max="26" width="10.3984375" customWidth="1"/>
+    <col min="27" max="27" width="13.265625" customWidth="1"/>
+    <col min="28" max="28" width="11.265625" customWidth="1"/>
+    <col min="29" max="43" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>127</v>
       </c>
@@ -2740,7 +2735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -2913,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="F10" s="11"/>
     </row>
   </sheetData>
